--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>mov</t>
   </si>
@@ -89,6 +89,9 @@
     <t>lock</t>
   </si>
   <si>
+    <t>unlock</t>
+  </si>
+  <si>
     <t>opcode</t>
   </si>
   <si>
@@ -171,6 +174,12 @@
   </si>
   <si>
     <t>34</t>
+  </si>
+  <si>
+    <t>ok.</t>
+  </si>
+  <si>
+    <t>3C</t>
   </si>
 </sst>
 </file>
@@ -556,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,9 +576,9 @@
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>5</v>
@@ -590,189 +599,207 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -781,259 +808,265 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1045,45 +1078,45 @@
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
         <v>26</v>
@@ -1091,28 +1124,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>22</v>
+      <c r="F19" s="2">
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
         <v>26</v>
@@ -1120,7 +1153,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1129,80 +1162,109 @@
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>22</v>
+      <c r="E21" s="2">
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>22</v>
+      <c r="E22" s="2">
+        <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
